--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/NEVADA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/NEVADA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1426"/>
+  <dimension ref="A1:D1420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -498,7 +498,7 @@
         <v>176</v>
       </c>
       <c r="D10">
-        <v>0.009935644123292311</v>
+        <v>0.009935644123292313</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C13">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C40">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C45">
@@ -1226,7 +1226,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C65">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C98">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C101">
@@ -1946,7 +1946,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C120">
@@ -1959,7 +1959,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C121">
@@ -2050,7 +2050,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C128">
@@ -2372,7 +2372,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C152">
@@ -2398,7 +2398,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2410,7 +2410,7 @@
         <v>169</v>
       </c>
       <c r="D154">
-        <v>0.009540476459297731</v>
+        <v>0.009540476459297733</v>
       </c>
     </row>
     <row r="155">
@@ -2455,7 +2455,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C158">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C172">
@@ -2824,7 +2824,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C186">
@@ -2876,7 +2876,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C190">
@@ -2967,7 +2967,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C197">
@@ -2980,7 +2980,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C198">
@@ -3039,7 +3039,7 @@
         <v>16</v>
       </c>
       <c r="D202">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="203">
@@ -3110,12 +3110,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C208">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C211">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C212">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C218">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C227">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C233">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C238">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C239">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C250">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C259">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C260">
@@ -3921,7 +3921,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C270">
@@ -3934,7 +3934,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C271">
@@ -4038,7 +4038,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C279">
@@ -4103,7 +4103,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C284">
@@ -4116,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C285">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C286">
@@ -4264,7 +4264,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C296">
@@ -4277,7 +4277,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C297">
@@ -4290,7 +4290,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C298">
@@ -4381,7 +4381,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C305">
@@ -4433,7 +4433,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C309">
@@ -4537,7 +4537,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C317">
@@ -4589,7 +4589,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C321">
@@ -4615,7 +4615,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C323">
@@ -4641,7 +4641,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C325">
@@ -4667,7 +4667,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C327">
@@ -4680,7 +4680,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C328">
@@ -4745,7 +4745,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C333">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C339">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C341">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C342">
@@ -4887,7 +4887,7 @@
         <v>16</v>
       </c>
       <c r="D343">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="344">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C346">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C347">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C350">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C351">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C352">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C353">
@@ -5075,20 +5075,20 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C358">
         <v>16</v>
       </c>
       <c r="D358">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C359">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C363">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C364">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C370">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C371">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C373">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C374">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C376">
@@ -5407,7 +5407,7 @@
         <v>16</v>
       </c>
       <c r="D383">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="384">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C389">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C391">
@@ -5530,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C393">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C395">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C399">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C400">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C410">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C416">
@@ -5847,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C417">
@@ -5906,13 +5906,13 @@
         <v>165</v>
       </c>
       <c r="D421">
-        <v>0.009314666365586541</v>
+        <v>0.009314666365586539</v>
       </c>
     </row>
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C422">
@@ -5964,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C426">
@@ -5990,7 +5990,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C428">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C437">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C438">
@@ -6133,7 +6133,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C439">
@@ -6146,7 +6146,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C440">
@@ -6172,7 +6172,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C442">
@@ -6185,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C443">
@@ -6198,7 +6198,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C444">
@@ -6263,7 +6263,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C449">
@@ -6302,7 +6302,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C452">
@@ -6328,7 +6328,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C454">
@@ -6367,7 +6367,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C457">
@@ -6471,7 +6471,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C465">
@@ -6484,7 +6484,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C466">
@@ -6497,7 +6497,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C467">
@@ -6549,7 +6549,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C471">
@@ -6562,7 +6562,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C472">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C477">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C478">
@@ -6665,7 +6665,7 @@
         <v>16</v>
       </c>
       <c r="D479">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="480">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C483">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C486">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C488">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C494">
@@ -6873,7 +6873,7 @@
         <v>16</v>
       </c>
       <c r="D495">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="496">
@@ -6925,7 +6925,7 @@
         <v>16</v>
       </c>
       <c r="D499">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="500">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C501">
@@ -6957,14 +6957,14 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C502">
         <v>16</v>
       </c>
       <c r="D502">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="503">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C510">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C517">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C518">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C519">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C523">
@@ -7295,7 +7295,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C528">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C529">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C537">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C542">
@@ -7490,7 +7490,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C543">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C545">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C546">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C549">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C551">
@@ -7607,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C552">
@@ -7620,7 +7620,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C553">
@@ -7633,7 +7633,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C554">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C557">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C558">
@@ -7763,7 +7763,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C564">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C565">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C568">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C569">
@@ -7984,7 +7984,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C581">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C582">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C583">
@@ -8075,7 +8075,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C588">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C589">
@@ -8127,7 +8127,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C592">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C593">
@@ -8153,7 +8153,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C594">
@@ -8483,14 +8483,14 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C619">
         <v>16</v>
       </c>
       <c r="D619">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="620">
@@ -8509,7 +8509,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C621">
@@ -8919,7 +8919,7 @@
         <v>170</v>
       </c>
       <c r="D652">
-        <v>0.009596928982725527</v>
+        <v>0.009596928982725529</v>
       </c>
     </row>
     <row r="653">
@@ -9380,7 +9380,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C688">
@@ -9723,7 +9723,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C714">
@@ -9814,7 +9814,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C721">
@@ -9853,7 +9853,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C724">
@@ -9931,7 +9931,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C730">
@@ -10022,7 +10022,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C737">
@@ -10079,7 +10079,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C741">
@@ -10092,7 +10092,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C742">
@@ -10144,7 +10144,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C746">
@@ -10235,7 +10235,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C753">
@@ -10474,7 +10474,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C771">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C774">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C776">
@@ -10583,7 +10583,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C779">
@@ -10622,7 +10622,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C782">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C784">
@@ -10661,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C785">
@@ -10674,7 +10674,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C786">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C787">
@@ -10700,7 +10700,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C788">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C789">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C790">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C794">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C796">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C797">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C798">
@@ -10843,7 +10843,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C799">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C800">
@@ -10869,7 +10869,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C801">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C802">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C808">
@@ -11168,7 +11168,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C824">
@@ -11272,7 +11272,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C832">
@@ -11896,7 +11896,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C880">
@@ -12377,7 +12377,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C917">
@@ -12390,7 +12390,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C918">
@@ -12403,7 +12403,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C919">
@@ -12416,7 +12416,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C920">
@@ -12429,7 +12429,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C921">
@@ -12455,7 +12455,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C923">
@@ -12468,7 +12468,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C924">
@@ -12481,7 +12481,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C925">
@@ -12494,7 +12494,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C926">
@@ -12507,7 +12507,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C927">
@@ -12520,7 +12520,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C928">
@@ -12546,7 +12546,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C930">
@@ -12559,7 +12559,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C931">
@@ -12585,14 +12585,14 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C933">
         <v>16</v>
       </c>
       <c r="D933">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="934">
@@ -12863,7 +12863,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C954">
@@ -12889,7 +12889,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C956">
@@ -13006,7 +13006,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C965">
@@ -13110,7 +13110,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C973">
@@ -13149,7 +13149,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C976">
@@ -13162,7 +13162,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C977">
@@ -13266,7 +13266,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C985">
@@ -13279,7 +13279,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C986">
@@ -13318,7 +13318,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C989">
@@ -13370,7 +13370,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C993">
@@ -13461,7 +13461,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1000">
@@ -13552,7 +13552,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1007">
@@ -13689,7 +13689,7 @@
         <v>168</v>
       </c>
       <c r="D1017">
-        <v>0.009484023935869933</v>
+        <v>0.009484023935869931</v>
       </c>
     </row>
     <row r="1018">
@@ -13747,7 +13747,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1022">
@@ -13799,7 +13799,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1026">
@@ -13812,7 +13812,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1027">
@@ -13890,7 +13890,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1033">
@@ -13968,7 +13968,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1039">
@@ -13981,7 +13981,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1040">
@@ -14033,7 +14033,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1044">
@@ -14059,7 +14059,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1046">
@@ -14124,7 +14124,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1051">
@@ -14248,7 +14248,7 @@
         <v>16</v>
       </c>
       <c r="D1060">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="1061">
@@ -14319,7 +14319,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1066">
@@ -14480,7 +14480,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1078">
@@ -14493,7 +14493,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1079">
@@ -14571,7 +14571,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1085">
@@ -14591,7 +14591,7 @@
         <v>16</v>
       </c>
       <c r="D1086">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="1087">
@@ -14610,7 +14610,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1088">
@@ -14776,7 +14776,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1100">
@@ -14893,7 +14893,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1109">
@@ -14932,7 +14932,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1112">
@@ -14984,7 +14984,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1116">
@@ -15088,7 +15088,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1124">
@@ -15101,7 +15101,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1125">
@@ -15204,7 +15204,7 @@
         <v>16</v>
       </c>
       <c r="D1132">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="1133">
@@ -15534,7 +15534,7 @@
         <v>16</v>
       </c>
       <c r="D1157">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="1158">
@@ -15683,7 +15683,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1169">
@@ -15961,7 +15961,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1190">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1208">
@@ -16257,7 +16257,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1212">
@@ -16296,7 +16296,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1215">
@@ -16309,7 +16309,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1216">
@@ -16348,7 +16348,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1219">
@@ -16400,7 +16400,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1223">
@@ -16600,7 +16600,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1238">
@@ -16691,7 +16691,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1245">
@@ -16730,7 +16730,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1248">
@@ -16847,7 +16847,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1257">
@@ -16860,7 +16860,7 @@
     <row r="1258">
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1258">
@@ -17016,7 +17016,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1270">
@@ -17029,7 +17029,7 @@
     <row r="1271">
       <c r="B1271" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1271">
@@ -17042,7 +17042,7 @@
     <row r="1272">
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1272">
@@ -17068,7 +17068,7 @@
     <row r="1274">
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1274">
@@ -17081,7 +17081,7 @@
     <row r="1275">
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1275">
@@ -17094,7 +17094,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1276">
@@ -17198,7 +17198,7 @@
     <row r="1284">
       <c r="B1284" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1284">
@@ -17237,7 +17237,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1287">
@@ -17302,7 +17302,7 @@
     <row r="1292">
       <c r="B1292" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1292">
@@ -17315,7 +17315,7 @@
     <row r="1293">
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1293">
@@ -17458,7 +17458,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1304">
@@ -17510,7 +17510,7 @@
     <row r="1308">
       <c r="B1308" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1308">
@@ -17614,7 +17614,7 @@
     <row r="1316">
       <c r="B1316" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1316">
@@ -17653,7 +17653,7 @@
     <row r="1319">
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1319">
@@ -17913,7 +17913,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1339">
@@ -18017,7 +18017,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1347">
@@ -18100,7 +18100,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Dzilam de Bravo</t>
+          <t>Dzilam De Bravo</t>
         </is>
       </c>
       <c r="C1353">
@@ -18185,7 +18185,7 @@
         <v>16</v>
       </c>
       <c r="D1359">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="1360">
@@ -18352,7 +18352,7 @@
     <row r="1372">
       <c r="B1372" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1372">
@@ -18378,7 +18378,7 @@
     <row r="1374">
       <c r="B1374" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1374">
@@ -18508,7 +18508,7 @@
     <row r="1384">
       <c r="B1384" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1384">
@@ -18586,7 +18586,7 @@
     <row r="1390">
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1390">
@@ -18651,7 +18651,7 @@
     <row r="1395">
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1395">
@@ -18664,7 +18664,7 @@
     <row r="1396">
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1396">
@@ -18677,7 +18677,7 @@
     <row r="1397">
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1397">
@@ -18801,7 +18801,7 @@
         <v>16</v>
       </c>
       <c r="D1406">
-        <v>0.0009032403748447555</v>
+        <v>0.0009032403748447556</v>
       </c>
     </row>
     <row r="1407">
@@ -18820,7 +18820,7 @@
     <row r="1408">
       <c r="B1408" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1408">
@@ -18833,7 +18833,7 @@
     <row r="1409">
       <c r="B1409" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1409">
@@ -18846,7 +18846,7 @@
     <row r="1410">
       <c r="B1410" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1410">
@@ -18885,7 +18885,7 @@
     <row r="1413">
       <c r="B1413" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1413">
@@ -18984,41 +18984,6 @@
       </c>
       <c r="D1420">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1423">
-      <c r="A1423" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
